--- a/2015-2016/clases/informatica_aplicada/clase_4/pracitca/estephanie_rodriguez.xlsx
+++ b/2015-2016/clases/informatica_aplicada/clase_4/pracitca/estephanie_rodriguez.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,18 +1240,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:L32"/>
+  <dimension ref="B10:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>2</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>5</v>
       </c>
@@ -1316,8 +1318,40 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f t="array" ref="P12:R14">D10:F12-I10:K12</f>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>-2</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="array" ref="D16:F18">D10:F12+I10:K12</f>
         <v>3</v>
@@ -1338,8 +1372,28 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="array" ref="M16:O18">D10:F12+I10:K12</f>
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="array" ref="P16:R18">D10:F12*I10:K12</f>
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1364,8 +1418,26 @@
       <c r="K17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>6</v>
       </c>
@@ -1384,8 +1456,49 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="array" ref="P21:R23">MMULT(D10:F12,I10:K12)</f>
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="array" ref="D23:F25">MMULT(D10:F12,I10:K12)</f>
         <v>3</v>
@@ -1406,8 +1519,17 @@
       <c r="K23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>7</v>
       </c>
@@ -1453,7 +1575,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="array" ref="P26:R28">MINVERSE(D10:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>-1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>-1</v>
       </c>
@@ -1501,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>1</v>
       </c>
@@ -1532,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,24 +1717,24 @@
       </c>
     </row>
     <row r="6" spans="5:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <f>12000*(0.07)/1-POWER((1.07),-5)</f>
         <v>839.28701382051645</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E10">
